--- a/with logs for unschedule with saturday sunday/excel_schedules/section_3A_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_3A_genetic_schedule.xlsx
@@ -525,6 +525,20 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>IT 402 - Advanced Programming
+3A
+Room 115</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>CA 403 - Computer Architecture
+3A
+Room 300</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -532,6 +546,8 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -539,13 +555,8 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>OS 404 - Operating Systems
-3A
-Room 118</t>
-        </is>
-      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -553,13 +564,7 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>CA 403 - Computer Architecture
-3A
-Room 300</t>
-        </is>
-      </c>
+      <c r="B6" s="2" t="n"/>
       <c r="E6" s="2" t="inlineStr">
         <is>
           <t>DM 406 - Discrete Mathematics
@@ -575,22 +580,8 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>AL 400 - Algorithms
-3A
-Room 117</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>CN 405 - Computer Networks
-3A
-Room 200</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -598,10 +589,14 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>CN 405 - Computer Networks
+3A
+Room 200</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -609,9 +604,8 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -633,18 +627,11 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>IT 402 - Advanced Programming
-3A
-Room 115</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>IT 402 - Advanced Programming
-3A
-Room 180</t>
+          <t>OS 404 - Operating Systems
+3A
+Room 118</t>
         </is>
       </c>
     </row>
@@ -654,15 +641,14 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>DS 401 - Data Structures
-3A
-Room 181</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>ST 407 - Software Testing
+3A
+Room 78</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -670,9 +656,7 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -680,7 +664,13 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>DS 401 - Data Structures
+3A
+Room 181</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -688,7 +678,7 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -696,11 +686,11 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>ST 407 - Software Testing
-3A
-Room 78</t>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>AL 400 - Algorithms
+3A
+Room 117</t>
         </is>
       </c>
     </row>
@@ -710,7 +700,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="F18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -718,6 +708,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
+      <c r="E19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -732,18 +723,11 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>ST 407 - Software Testing
 3A
 Room 202</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>OS 404 - Operating Systems
-3A
-Room 199</t>
         </is>
       </c>
     </row>
@@ -753,22 +737,21 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>DS 401 - Data Structures
+3A
+Room 116</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>AL 400 - Algorithms
 3A
 Room 182</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>DS 401 - Data Structures
-3A
-Room 116</t>
-        </is>
-      </c>
+      <c r="G22" s="2" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -776,8 +759,14 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>OS 404 - Operating Systems
+3A
+Room 199</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
@@ -786,11 +775,12 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
+      <c r="C24" s="2" t="n"/>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>CN 405 - Computer Networks
-3A
-Room 77</t>
+          <t>IT 402 - Advanced Programming
+3A
+Room 180</t>
         </is>
       </c>
       <c r="E24" s="2" t="n"/>
@@ -802,8 +792,9 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
+      <c r="C25" s="2" t="n"/>
       <c r="D25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -821,21 +812,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D21:D23"/>
+  <mergeCells count="13">
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/section_3A_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_3A_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,66 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020B2AA"/>
+        <bgColor rgb="0020B2AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009370DB"/>
+        <bgColor rgb="009370DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F08080"/>
+        <bgColor rgb="00F08080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0FFFF"/>
+        <bgColor rgb="00E0FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE4E1"/>
+        <bgColor rgb="00FFE4E1"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +139,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,6 +608,46 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>GE ArtApp - Arts Appreciation
+3A
+Room 303
+Emp: 17</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 304
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>A1 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>GE ArtApp - Arts Appreciation
+3A
+Room 303
+Emp: 17</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>A2 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="50" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -525,20 +655,11 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>IT 402 - Advanced Programming
-3A
-Room 115</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>CA 403 - Computer Architecture
-3A
-Room 300</t>
-        </is>
-      </c>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -546,8 +667,11 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -555,8 +679,23 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>IS 313 - Quantitative Methods
+3A
+Room 303
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n"/>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>IS 313 - Quantitative Methods
+3A
+Room 573
+Emp: 3</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -564,15 +703,16 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>DM 406 - Discrete Mathematics
-3A
-Room 201</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n"/>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>IS 312 - Business Process Management
+3A
+Room 304
+Emp: 6</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -580,8 +720,9 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="E7" s="7" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -589,14 +730,7 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>CN 405 - Computer Networks
-3A
-Room 200</t>
-        </is>
-      </c>
+      <c r="C8" s="8" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -604,8 +738,6 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -627,11 +759,36 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>OS 404 - Operating Systems
-3A
-Room 118</t>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>A2 IS 314 - Web Based Programming and Application
+3A
+Room 310
+Emp: 8</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>IS 314 - IS Innovations and New Technologies
+3A
+Room 303
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>IS 314 - IS Innovations and New Technologies
+3A
+Room 304
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>A2 IS 314 - Web Based Programming and Application
+3A
+Room 208
+Emp: 8</t>
         </is>
       </c>
     </row>
@@ -641,14 +798,10 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="F13" s="2" t="n"/>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>ST 407 - Software Testing
-3A
-Room 78</t>
-        </is>
-      </c>
+      <c r="B13" s="9" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="E13" s="10" t="n"/>
+      <c r="F13" s="9" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -656,7 +809,10 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="H14" s="2" t="n"/>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="E14" s="10" t="n"/>
+      <c r="F14" s="9" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -664,11 +820,36 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>DS 401 - Data Structures
-3A
-Room 181</t>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <t>A2 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 304
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="D15" s="12" t="inlineStr">
+        <is>
+          <t>A1 IS 314 - Web Based Programming and Application
+3A
+Room 208
+Emp: 8</t>
+        </is>
+      </c>
+      <c r="E15" s="12" t="inlineStr">
+        <is>
+          <t>A1 IS 314 - Web Based Programming and Application
+3A
+Room 208
+Emp: 8</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>A2 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
         </is>
       </c>
     </row>
@@ -678,7 +859,10 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="E16" s="2" t="n"/>
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="12" t="n"/>
+      <c r="E16" s="12" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -686,13 +870,10 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>AL 400 - Algorithms
-3A
-Room 117</t>
-        </is>
-      </c>
+      <c r="C17" s="11" t="n"/>
+      <c r="D17" s="12" t="n"/>
+      <c r="E17" s="12" t="n"/>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -700,7 +881,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="E18" s="2" t="n"/>
+      <c r="C18" s="11" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -708,7 +889,6 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -723,11 +903,36 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>ST 407 - Software Testing
-3A
-Room 202</t>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>A1 IS 314 - Web Based Programming and Application
+3A
+Room 303
+Emp: 8</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="E21" s="11" t="inlineStr">
+        <is>
+          <t>A2 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
         </is>
       </c>
     </row>
@@ -737,21 +942,10 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>DS 401 - Data Structures
-3A
-Room 116</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>AL 400 - Algorithms
-3A
-Room 182</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="12" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="11" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -759,15 +953,18 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n"/>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>OS 404 - Operating Systems
-3A
-Room 199</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="12" t="n"/>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="11" t="n"/>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>A1 IS 316 - IS/IT Security Management
+3A
+Room 303
+Emp: 10</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -775,16 +972,24 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>IT 402 - Advanced Programming
-3A
-Room 180</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>IS 312 - Business Process Management
+3A
+Room 304
+Emp: 6</t>
+        </is>
+      </c>
+      <c r="C24" s="12" t="n"/>
+      <c r="D24" s="11" t="inlineStr">
+        <is>
+          <t>A2 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -792,9 +997,9 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
+      <c r="B25" s="8" t="n"/>
+      <c r="D25" s="11" t="n"/>
+      <c r="F25" s="5" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -802,7 +1007,9 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
+      <c r="B26" s="8" t="n"/>
+      <c r="D26" s="11" t="n"/>
+      <c r="F26" s="5" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -812,20 +1019,30 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E23:E25"/>
+  <mergeCells count="23">
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="D24:D26"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
